--- a/biology/Zoologie/Cuivré_des_Balkans/Cuivré_des_Balkans.xlsx
+++ b/biology/Zoologie/Cuivré_des_Balkans/Cuivré_des_Balkans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_des_Balkans</t>
+          <t>Cuivré_des_Balkans</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lycaena ottomanus
 Le Cuivré des Balkans (Lycaena ottomanus) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Lycaeninae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_des_Balkans</t>
+          <t>Cuivré_des_Balkans</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>L'espèce Lycaena ottomanus a été décrite par Alexandre Louis Lefèbvre de Cerisy en 1830.
 Synonymes : 
 Polyommatus ottomanus Lefèbvre, 1830 — protonyme
-Heodes ottomanus (Lefèbvre, 1830)[1].</t>
+Heodes ottomanus (Lefèbvre, 1830).</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_des_Balkans</t>
+          <t>Cuivré_des_Balkans</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Cuivré des Balkans se nomme Grecian Copper en anglais[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Cuivré des Balkans se nomme Grecian Copper en anglais.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_des_Balkans</t>
+          <t>Cuivré_des_Balkans</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,16 +592,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cuivré des Balkans est un petit papillon présentant un dimorphisme sexuel. Le dessus du mâle est cuivré bordé de marron avec de petits points noir à l'apex des antérieures, celui de la femelle est ornementé de lignes de points noirs aux ailes antérieures orange comme aux ailes postérieures orange bordées de marron. Au verso le mâle et la femelle ont des ailes antérieures orangées ornées de petits points noirs alors que les postérieures beaucoup plus beige chez le mâle comportent une ornementation orange, une bande sub-marginale formée par des dessins curvilignes proches.
 Pour la seconde génération le verso des ailes postérieures serait jaunâtre.
 			Lycaena ottomanus ♂   	MHNT
 			Lycaena ottomanus ♂  △
-Chenille et chrysalide
-Les œufs sont pondus sur la plante hôte Rumex acetosella[2].
-Espèces proches ou ressemblantes
-Dans son aire de répartition, le Cuivré de la verge d'or (Lycaena virgaureae), le Cuivré du genêt (Lycaena thersamon), le Cuivré d'Anatolie (Lycaena thetis) et le Cuivré turc (Lycaena candens) peuvent être difficiles à différencier.
 </t>
         </is>
       </c>
@@ -596,7 +610,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_des_Balkans</t>
+          <t>Cuivré_des_Balkans</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,15 +625,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en deux générations, en avril-mai puis juillet août[2].
-Plantes hôtes
-La plante hôte est Rumex acetosella[2].
+          <t>Chenille et chrysalide</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs sont pondus sur la plante hôte Rumex acetosella.
 </t>
         </is>
       </c>
@@ -630,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cuivr%C3%A9_des_Balkans</t>
+          <t>Cuivré_des_Balkans</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,16 +662,199 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Espèces proches ou ressemblantes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans son aire de répartition, le Cuivré de la verge d'or (Lycaena virgaureae), le Cuivré du genêt (Lycaena thersamon), le Cuivré d'Anatolie (Lycaena thetis) et le Cuivré turc (Lycaena candens) peuvent être difficiles à différencier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cuivré_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en deux générations, en avril-mai puis juillet août.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cuivré_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante hôte est Rumex acetosella.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cuivré_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de répartition est limitée au sud des Balkans, Monténégro de la Serbie, Albanie, Bulgarie, nord de la Grèce et cote sud de la Turquie[2],[3].
-Biotope
-Il affectionne les lieux rocailleux, secs, broussailleux.
-Protection
-Il est inscrit sur le Red Data Book (Livre rouge européen) pour la Macédoine, la Bosnie, la Grèce, la Hongrie, la Bulgarie, la  Yougoslavie et la Turquie[4],[5].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition est limitée au sud des Balkans, Monténégro de la Serbie, Albanie, Bulgarie, nord de la Grèce et cote sud de la Turquie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Cuivré_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les lieux rocailleux, secs, broussailleux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Cuivré_des_Balkans</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cuivr%C3%A9_des_Balkans</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est inscrit sur le Red Data Book (Livre rouge européen) pour la Macédoine, la Bosnie, la Grèce, la Hongrie, la Bulgarie, la  Yougoslavie et la Turquie,.
 </t>
         </is>
       </c>
